--- a/SeleniumProject/data/data2.xlsx
+++ b/SeleniumProject/data/data2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bipasha.kamra\eclipse-workspace\SeleniumTrainningProject\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,15 +36,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>hardik</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -410,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1563EC-66EE-A54D-AC0A-6394B2A6655A}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -418,15 +422,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="0">
         <v>9518899870</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
